--- a/wash_P/MGL.xlsx
+++ b/wash_P/MGL.xlsx
@@ -91199,7 +91199,7 @@
         <v>0</v>
       </c>
       <c r="ND29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NE29" t="n">
         <v>0</v>
